--- a/Question_Set2/Software skills/Docker.xlsx
+++ b/Question_Set2/Software skills/Docker.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Given the Dockerfile below, what is the best way to reduce the layers in the output Docker image? FROM ubuntu:18.04\nRUN apt install mysql-server apache2\nRUN mkdir -p /opt/app\nCOPY /app/config.xml /opt/app/conf\nCOPY /app/script.sh /opt/app/bin', 'ques_type': 2, 'options': ['Combine the RUN commands separated by &amp;amp&amp;amp.', 'Combine the COPY commands separated by &amp;amp&amp;amp.', 'Run apt-get clean --dry-run after all commands.', 'Wrap all COPY commands into a custom script and invoke that.'], 'score': 'Combine the RUN commands separated by &amp;amp&amp;amp.'}, {'title': 'You are using Docker as part of your CI/CD process and the builds are using private images hosted at registry.company.com. How do you log in your Docker client non-interactively to that registry?', 'ques_type': 2, 'options': ['echo $PASSWORD | docker login registry.company.com --username $USERNAME --password-stdin\n', 'echo $PASSWORD | docker login registry.company.com --username $USERNAME --password-from-stdin\n', 'docker login --non-interactive --username $USERNAME --password $PASSWORD\n', 'docker login --username $USERNAME --password $PASSWORD --password-input\n'], 'score': 'echo $PASSWORD | docker login registry.company.com --username $USERNAME --password-stdin'}, {'title': 'True or false: AUFS is the new supported storage driver for Docker 19.0 and above.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}, {'title': 'What happens if you push two images built with the same Dockerfile, but they’re tagged differently?', 'ques_type': 2, 'options': ['The registry will only store the first image pushed but will create two separate tags that point to the same layer.', 'The registry will create two separate images and one tag each.', 'The second push will result in a no-op situation.', 'Only the second push will fail only duplicate image content is not allowed.'], 'score': 'The registry will only store the first image pushed but will create two separate tags that point to the same layer.'}]</t>
+    <t>questions = [
+    {
+        "title": "Given the Dockerfile below, what is the best way to reduce the layers in the output Docker image? FROM ubuntu:18.04\nRUN apt install mysql-server apache2\nRUN mkdir -p /opt/app\nCOPY /app/config.xml /opt/app/conf\nCOPY /app/script.sh /opt/app/bin",
+        "ques_type": 2,
+        "options": [
+            "Combine the RUN commands separated by &amp;amp&amp;amp.",
+            "Combine the COPY commands separated by &amp;amp&amp;amp.",
+            "Run apt-get clean --dry-run after all commands.",
+            "Wrap all COPY commands into a custom script and invoke that."
+        ],
+        "score": "Combine the RUN commands separated by &amp;amp&amp;amp."
+    },
+    {
+        "title": "You are using Docker as part of your CI/CD process and the builds are using private images hosted at registry.company.com. How do you log in your Docker client non-interactively to that registry?",
+        "ques_type": 2,
+        "options": [
+            "echo $PASSWORD | docker login registry.company.com --username $USERNAME --password-stdin\n",
+            "echo $PASSWORD | docker login registry.company.com --username $USERNAME --password-from-stdin\n",
+            "docker login --non-interactive --username $USERNAME --password $PASSWORD\n",
+            "docker login --username $USERNAME --password $PASSWORD --password-input\n"
+        ],
+        "score": "echo $PASSWORD | docker login registry.company.com --username $USERNAME --password-stdin"
+    },
+    {
+        "title": "True or false: AUFS is the new supported storage driver for Docker 19.0 and above.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    },
+    {
+        "title": "What happens if you push two images built with the same Dockerfile, but they\u2019re tagged differently?",
+        "ques_type": 2,
+        "options": [
+            "The registry will only store the first image pushed but will create two separate tags that point to the same layer.",
+            "The registry will create two separate images and one tag each.",
+            "The second push will result in a no-op situation.",
+            "Only the second push will fail only duplicate image content is not allowed."
+        ],
+        "score": "The registry will only store the first image pushed but will create two separate tags that point to the same layer."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
